--- a/src/main/resources/kegelmeisterschaft/service/importer/2016/player/KC K.e.R.n..xlsx
+++ b/src/main/resources/kegelmeisterschaft/service/importer/2016/player/KC K.e.R.n..xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>firstName</t>
   </si>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t>Svenja</t>
-  </si>
-  <si>
-    <t>Wassmuth</t>
   </si>
   <si>
     <t>Sascha</t>
@@ -194,11 +191,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -476,7 +473,7 @@
         <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>6</v>
@@ -487,10 +484,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
